--- a/biology/Botanique/Oldenlandia_strigulosa/Oldenlandia_strigulosa.xlsx
+++ b/biology/Botanique/Oldenlandia_strigulosa/Oldenlandia_strigulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Oldenlandia strigulosa est une espèce de plantes de la famille des Rubiaceae.
-Selon The Plant List            (28 octobre 2017)[2], le nom serait valide.
+Selon The Plant List            (28 octobre 2017), le nom serait valide.
 Selon d’autres sources, le nom serait synonyme des noms suivants et chacun serait le nom valide : 
-Thecagonum strigulosum  (Bartl. ex DC.) Terrell &amp; H.Rob., selon Catalogue of Life                                   (28 octobre 2017)[5],
-Leptopetalum strigulosum  (DC.) Neupane &amp; N.Wikstr. (2015), selon World Checklist of Selected Plant Families (WCSP)  (28 octobre 2017)[6],
-Hedyotis strigulosa  (Bartl. ex DC.) Fosberg, et Leptopetalum strigulosum  (Bartl. ex DC.) Neupane &amp; N. Wikstrom, selon Tropicos                                           (28 octobre 2017)[1].</t>
+Thecagonum strigulosum  (Bartl. ex DC.) Terrell &amp; H.Rob., selon Catalogue of Life                                   (28 octobre 2017),
+Leptopetalum strigulosum  (DC.) Neupane &amp; N.Wikstr. (2015), selon World Checklist of Selected Plant Families (WCSP)  (28 octobre 2017),
+Hedyotis strigulosa  (Bartl. ex DC.) Fosberg, et Leptopetalum strigulosum  (Bartl. ex DC.) Neupane &amp; N. Wikstrom, selon Tropicos                                           (28 octobre 2017).</t>
         </is>
       </c>
     </row>
